--- a/data_processed/20250821/BTCUSDVOLSURFACE_REGULARIZED_20250821.xlsx
+++ b/data_processed/20250821/BTCUSDVOLSURFACE_REGULARIZED_20250821.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6126,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6184,7 +6184,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6934,7 +6934,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6992,7 +6992,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -7050,7 +7050,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13006,7 +13006,7 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -18575,7 +18575,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18662,7 +18662,7 @@
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18807,7 +18807,7 @@
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -22769,7 +22769,7 @@
       </c>
       <c r="G872" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -29941,7 +29941,7 @@
       </c>
       <c r="G1156" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -34598,7 +34598,7 @@
       </c>
       <c r="G1341" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35168,7 +35168,7 @@
       </c>
       <c r="G1363" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35197,7 +35197,7 @@
       </c>
       <c r="G1364" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35226,7 +35226,7 @@
       </c>
       <c r="G1365" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35400,7 +35400,7 @@
       </c>
       <c r="G1371" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35458,7 +35458,7 @@
       </c>
       <c r="G1373" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36082,7 +36082,7 @@
       </c>
       <c r="G1397" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36223,7 +36223,7 @@
       </c>
       <c r="G1402" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36281,7 +36281,7 @@
       </c>
       <c r="G1404" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36310,7 +36310,7 @@
       </c>
       <c r="G1405" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36339,7 +36339,7 @@
       </c>
       <c r="G1406" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36368,7 +36368,7 @@
       </c>
       <c r="G1407" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36397,7 +36397,7 @@
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37233,7 +37233,7 @@
       </c>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37461,7 +37461,7 @@
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38206,7 +38206,7 @@
       </c>
       <c r="G1477" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38293,7 +38293,7 @@
       </c>
       <c r="G1480" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38484,7 +38484,7 @@
       </c>
       <c r="G1487" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -39004,7 +39004,7 @@
       </c>
       <c r="G1507" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39033,7 +39033,7 @@
       </c>
       <c r="G1508" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39062,7 +39062,7 @@
       </c>
       <c r="G1509" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -39091,7 +39091,7 @@
       </c>
       <c r="G1510" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -39228,7 +39228,7 @@
       </c>
       <c r="G1515" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39257,7 +39257,7 @@
       </c>
       <c r="G1516" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -39286,7 +39286,7 @@
       </c>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -39315,7 +39315,7 @@
       </c>
       <c r="G1518" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39344,7 +39344,7 @@
       </c>
       <c r="G1519" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -39423,7 +39423,7 @@
       </c>
       <c r="G1522" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40276,7 +40276,7 @@
       </c>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -41249,7 +41249,7 @@
       </c>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -42139,7 +42139,7 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250821/BTCUSDVOLSURFACE_REGULARIZED_20250821.xlsx
+++ b/data_processed/20250821/BTCUSDVOLSURFACE_REGULARIZED_20250821.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -6992,7 +6992,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -18807,7 +18807,7 @@
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -38484,7 +38484,7 @@
       </c>
       <c r="G1487" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
